--- a/Вычмат/lab2/Вычислительный.xlsx
+++ b/Вычмат/lab2/Вычислительный.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\docs_for_labs\Вычмат\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC413F8B-7E74-40DD-A9EF-26575F3527C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706DB8D6-0F0B-4463-AD97-4E64742EE1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,6 +198,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -336,9 +339,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -347,49 +380,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -675,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N45" sqref="N45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,33 +740,33 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="16">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="16">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="16">
         <f>(C2+B2)/2</f>
         <v>2.5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="16">
         <f>B2^3+2.84*B2^2-5.606*B2-14.766</f>
         <v>-6.6180000000000003</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="16">
         <f>C2^3+2.84*C2^2-5.606*C2-14.766</f>
         <v>20.976000000000006</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="16">
         <f>D2^3+2.84*D2^2-5.606*D2-14.766</f>
         <v>4.5939999999999994</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="16">
         <f>C2-B2</f>
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="3" t="str">
         <f>IF(H2&lt;=$M$3,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
@@ -776,35 +782,35 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="16">
         <f>IF(G2&gt;=0,B2,D2)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="16">
         <f>IF(G2&gt;=0,D2,C2)</f>
         <v>2.5</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="16">
         <f t="shared" ref="D3:D9" si="0">(C3+B3)/2</f>
         <v>2.25</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="16">
         <f t="shared" ref="E3:E9" si="1">B3^3+2.84*B3^2-5.606*B3-14.766</f>
         <v>-6.6180000000000003</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="16">
         <f t="shared" ref="F3:F9" si="2">C3^3+2.84*C3^2-5.606*C3-14.766</f>
         <v>4.5939999999999994</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="16">
         <f t="shared" ref="G3:G9" si="3">D3^3+2.84*D3^2-5.606*D3-14.766</f>
         <v>-1.6113750000000024</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="16">
         <f t="shared" ref="H3:H9" si="4">C3-B3</f>
         <v>0.5</v>
       </c>
-      <c r="I3" s="8" t="str">
+      <c r="I3" s="3" t="str">
         <f t="shared" ref="I3:I9" si="5">IF(H3&lt;=$M$3,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
@@ -824,35 +830,35 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="16">
         <f t="shared" ref="B4:B9" si="6">IF(G3&gt;=0,B3,D3)</f>
         <v>2.25</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="16">
         <f t="shared" ref="C4:C9" si="7">IF(G3&gt;=0,D3,C3)</f>
         <v>2.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="16">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="16">
         <f t="shared" si="1"/>
         <v>-1.6113750000000024</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="16">
         <f t="shared" si="2"/>
         <v>4.5939999999999994</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="16">
         <f t="shared" si="3"/>
         <v>1.3356093750000024</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="16">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="3" t="str">
         <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
@@ -871,35 +877,35 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="16">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="16">
         <f t="shared" si="7"/>
         <v>2.375</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="16">
         <f t="shared" si="0"/>
         <v>2.3125</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="16">
         <f t="shared" si="1"/>
         <v>-1.6113750000000024</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="16">
         <f t="shared" si="2"/>
         <v>1.3356093750000024</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="16">
         <f t="shared" si="3"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="16">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="3" t="str">
         <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
@@ -912,35 +918,35 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="16">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="16">
         <f t="shared" si="7"/>
         <v>2.375</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>2.34375</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="16">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="16">
         <f t="shared" si="2"/>
         <v>1.3356093750000024</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="16">
         <f t="shared" si="3"/>
         <v>0.57012670898437534</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="16">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="3" t="str">
         <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
@@ -953,35 +959,35 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="16">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="16">
         <f t="shared" si="7"/>
         <v>2.34375</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>2.328125</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="16">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="16">
         <f t="shared" si="2"/>
         <v>0.57012670898437534</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="16">
         <f t="shared" si="3"/>
         <v>0.19462673950195253</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="16">
         <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="3" t="str">
         <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
@@ -994,35 +1000,35 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="16">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="16">
         <f t="shared" si="7"/>
         <v>2.328125</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="16">
         <f t="shared" si="0"/>
         <v>2.3203125</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="16">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="16">
         <f t="shared" si="2"/>
         <v>0.19462673950195253</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="16">
         <f t="shared" si="3"/>
         <v>8.6770820617676492E-3</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="16">
         <f t="shared" si="4"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="3" t="str">
         <f t="shared" si="5"/>
         <v>НЕТ</v>
       </c>
@@ -1035,35 +1041,35 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="16">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="16">
         <f t="shared" si="7"/>
         <v>2.3203125</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>2.31640625</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="16">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="16">
         <f t="shared" si="2"/>
         <v>8.6770820617676492E-3</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="16">
         <f t="shared" si="3"/>
         <v>-8.384891653060933E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="16">
         <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
-      <c r="I9" s="5" t="str">
+      <c r="I9" s="2" t="str">
         <f t="shared" si="5"/>
         <v>ДА</v>
       </c>
@@ -1167,10 +1173,10 @@
       <c r="F13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1184,30 +1190,30 @@
       <c r="A14" s="1">
         <v>0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="16">
         <v>-3</v>
       </c>
-      <c r="C14" s="1">
-        <f>B14+$K$12*(B14^3+2.84*B14^2-5.606*B14-14.766)</f>
+      <c r="C14" s="16">
+        <f t="shared" ref="C14:D16" si="8">B14+$K$12*(B14^3+2.84*B14^2-5.606*B14-14.766)</f>
         <v>-3.1357148734177209</v>
       </c>
-      <c r="D14" s="1">
-        <f>C14+$K$12*(C14^3+2.84*C14^2-5.606*C14-14.766)</f>
+      <c r="D14" s="16">
+        <f t="shared" si="8"/>
         <v>-3.1146789898905025</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="16">
         <f>(D14^3+2.84*D14^2-5.606*D14-14.766)</f>
         <v>3.0167675925133253E-2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="16">
         <f>ABS(C14-B14)</f>
         <v>0.13571487341772093</v>
       </c>
-      <c r="G14" s="9" t="str">
+      <c r="G14" s="10" t="str">
         <f>IF(F14&lt;=$M$3,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="11"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1218,31 +1224,31 @@
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="16">
         <f>C14</f>
         <v>-3.1357148734177209</v>
       </c>
-      <c r="C15" s="1">
-        <f>B15+$K$12*(B15^3+2.84*B15^2-5.606*B15-14.766)</f>
+      <c r="C15" s="16">
+        <f t="shared" si="8"/>
         <v>-3.1146789898905025</v>
       </c>
-      <c r="D15" s="1">
-        <f>C15+$K$12*(C15^3+2.84*C15^2-5.606*C15-14.766)</f>
+      <c r="D15" s="16">
+        <f t="shared" si="8"/>
         <v>-3.1213688629615586</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="16">
         <f>(D15^3+2.84*D15^2-5.606*D15-14.766)</f>
         <v>-8.9671108653579523E-3</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="16">
         <f>ABS(C15-B15)</f>
         <v>2.1035883527218413E-2</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="10" t="str">
         <f>IF(F15&lt;=$M$3,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="H15" s="10"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1253,31 +1259,31 @@
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="16">
         <f>C15</f>
         <v>-3.1146789898905025</v>
       </c>
-      <c r="C16" s="11">
-        <f>B16+$K$12*(B16^3+2.84*B16^2-5.606*B16-14.766)</f>
+      <c r="C16" s="18">
+        <f t="shared" si="8"/>
         <v>-3.1213688629615586</v>
       </c>
-      <c r="D16" s="12">
-        <f>C16+$K$12*(C16^3+2.84*C16^2-5.606*C16-14.766)</f>
+      <c r="D16" s="19">
+        <f t="shared" si="8"/>
         <v>-3.1193803493732992</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="16">
         <f>(D16^3+2.84*D16^2-5.606*D16-14.766)</f>
         <v>2.7263159959804995E-3</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="16">
         <f>ABS(C16-B16)</f>
         <v>6.6898730710560628E-3</v>
       </c>
-      <c r="G16" s="6" t="str">
+      <c r="G16" s="14" t="str">
         <f>IF(F16&lt;=$M$3,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="H16" s="7"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1421,10 +1427,10 @@
       <c r="F22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1435,31 +1441,31 @@
       <c r="A23" s="1">
         <v>0</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="16">
         <f>H20</f>
         <v>-2</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="16">
         <f>B23^3+2.84*B23^2-5.606*B23-14.766</f>
         <v>-0.19400000000000084</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="16">
         <f>3*B23^2+5.68*B23-5.606</f>
         <v>-4.9659999999999993</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="16">
         <f>B23-C23/D23</f>
         <v>-2.0390656463954895</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="16">
         <f>ABS(E23-B23)</f>
         <v>3.9065646395489484E-2</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="10" t="str">
         <f>IF(F23&lt;=$M$3,"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="11"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1470,31 +1476,31 @@
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="17">
         <f>E23</f>
         <v>-2.0390656463954895</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="16">
         <f>B24^3+2.84*B24^2-5.606*B24-14.766</f>
         <v>-4.8821731904116206E-3</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="16">
         <f>3*B24^2+5.68*B24-5.606</f>
         <v>-4.7145267405956144</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="16">
         <f>B24-C24/D24</f>
         <v>-2.0401012059455863</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" ref="F24:F35" si="8">ABS(E24-B24)</f>
+      <c r="F24" s="16">
+        <f t="shared" ref="F24" si="9">ABS(E24-B24)</f>
         <v>1.0355595500968207E-3</v>
       </c>
-      <c r="G24" s="9" t="str">
-        <f t="shared" ref="G24:G35" si="9">IF(F24&lt;=$M$3,"ДА","НЕТ")</f>
+      <c r="G24" s="14" t="str">
+        <f t="shared" ref="G24" si="10">IF(F24&lt;=$M$3,"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1508,8 +1514,8 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1523,8 +1529,8 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1" t="s">
         <v>39</v>
@@ -1547,8 +1553,8 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1602,10 +1608,10 @@
       <c r="G29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="16"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1615,35 +1621,35 @@
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="16">
         <f>D28</f>
         <v>3</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="16">
         <f>D27</f>
         <v>1</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="16">
         <f>3+COS(C30)</f>
         <v>3.5403023058681398</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="16">
         <f>-COS(B30-1)+0.5</f>
         <v>0.91614683654714235</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="16">
         <f>ABS(D30-B30)</f>
         <v>0.54030230586813977</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="16">
         <f>ABS(E30-C30)</f>
         <v>8.3853163452857649E-2</v>
       </c>
-      <c r="H30" s="17" t="str">
+      <c r="H30" s="6" t="str">
         <f>IF(AND(F30&lt;$M$3,G30&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="7"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1653,35 +1659,35 @@
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="16">
         <f>D30</f>
         <v>3.5403023058681398</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="16">
         <f>E30</f>
         <v>0.91614683654714235</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="16">
         <f>3+COS(C31)</f>
         <v>3.6088812348825443</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="16">
         <f>-COS(B31-1)+0.5</f>
         <v>1.3246063428921</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="16">
         <f>ABS(D31-B31)</f>
         <v>6.8578929014404544E-2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="16">
         <f>ABS(E31-C31)</f>
         <v>0.40845950634495765</v>
       </c>
-      <c r="H31" s="17" t="str">
+      <c r="H31" s="6" t="str">
         <f>IF(AND(F31&lt;$M$3,G31&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="7"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1691,35 +1697,35 @@
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="1">
-        <f t="shared" ref="B32:B33" si="10">D31</f>
+      <c r="B32" s="16">
+        <f t="shared" ref="B32:B33" si="11">D31</f>
         <v>3.6088812348825443</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" ref="C32:C33" si="11">E31</f>
+      <c r="C32" s="16">
+        <f t="shared" ref="C32:C33" si="12">E31</f>
         <v>1.3246063428921</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" ref="D32:D54" si="12">3+COS(C32)</f>
+      <c r="D32" s="16">
+        <f t="shared" ref="D32:D48" si="13">3+COS(C32)</f>
         <v>3.2437106005789911</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" ref="E32:E33" si="13">-COS(B32-1)+0.5</f>
+      <c r="E32" s="16">
+        <f t="shared" ref="E32:E33" si="14">-COS(B32-1)+0.5</f>
         <v>1.3614331880489516</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" ref="F32:F33" si="14">ABS(D32-B32)</f>
+      <c r="F32" s="16">
+        <f t="shared" ref="F32:F33" si="15">ABS(D32-B32)</f>
         <v>0.36517063430355323</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" ref="G32:G33" si="15">ABS(E32-C32)</f>
+      <c r="G32" s="16">
+        <f t="shared" ref="G32:G33" si="16">ABS(E32-C32)</f>
         <v>3.682684515685164E-2</v>
       </c>
-      <c r="H32" s="17" t="str">
-        <f t="shared" ref="H32:H33" si="16">IF(AND(F32&lt;$M$3,G32&lt;$M$3),"ДА","НЕТ")</f>
-        <v>НЕТ</v>
-      </c>
-      <c r="I32" s="18"/>
+      <c r="H32" s="6" t="str">
+        <f t="shared" ref="H32:H33" si="17">IF(AND(F32&lt;$M$3,G32&lt;$M$3),"ДА","НЕТ")</f>
+        <v>НЕТ</v>
+      </c>
+      <c r="I32" s="7"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1729,35 +1735,35 @@
       <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" s="1">
-        <f t="shared" si="10"/>
+      <c r="B33" s="16">
+        <f t="shared" si="11"/>
         <v>3.2437106005789911</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="11"/>
+      <c r="C33" s="16">
+        <f t="shared" si="12"/>
         <v>1.3614331880489516</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="12"/>
+      <c r="D33" s="16">
+        <f t="shared" si="13"/>
         <v>3.2078369876184896</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="13"/>
+      <c r="E33" s="16">
+        <f t="shared" si="14"/>
         <v>1.1232676177229135</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="14"/>
+      <c r="F33" s="16">
+        <f t="shared" si="15"/>
         <v>3.5873612960501511E-2</v>
       </c>
-      <c r="G33" s="1">
-        <f t="shared" si="15"/>
+      <c r="G33" s="16">
+        <f t="shared" si="16"/>
         <v>0.23816557032603813</v>
       </c>
-      <c r="H33" s="17" t="str">
-        <f t="shared" si="16"/>
-        <v>НЕТ</v>
-      </c>
-      <c r="I33" s="18"/>
+      <c r="H33" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>НЕТ</v>
+      </c>
+      <c r="I33" s="7"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1767,35 +1773,35 @@
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="16">
         <f>D33</f>
         <v>3.2078369876184896</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="16">
         <f>E33</f>
         <v>1.1232676177229135</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="16">
         <f>3+COS(C34)</f>
         <v>3.4327389413938527</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="16">
         <f>-COS(B34-1)+0.5</f>
         <v>1.0948191564036276</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="16">
         <f>ABS(D34-B34)</f>
         <v>0.22490195377536315</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="16">
         <f>ABS(E34-C34)</f>
         <v>2.8448461319285911E-2</v>
       </c>
-      <c r="H34" s="17" t="str">
+      <c r="H34" s="6" t="str">
         <f>IF(AND(F34&lt;$M$3,G34&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1805,35 +1811,35 @@
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="1">
-        <f t="shared" ref="B35:B36" si="17">D34</f>
+      <c r="B35" s="16">
+        <f t="shared" ref="B35:B36" si="18">D34</f>
         <v>3.4327389413938527</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" ref="C35:C36" si="18">E34</f>
+      <c r="C35" s="16">
+        <f t="shared" ref="C35:C36" si="19">E34</f>
         <v>1.0948191564036276</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="12"/>
+      <c r="D35" s="16">
+        <f t="shared" si="13"/>
         <v>3.4582072192098736</v>
       </c>
-      <c r="E35" s="1">
-        <f t="shared" ref="E35:E36" si="19">-COS(B35-1)+0.5</f>
+      <c r="E35" s="16">
+        <f t="shared" ref="E35:E36" si="20">-COS(B35-1)+0.5</f>
         <v>1.2591085666943778</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" ref="F35:F36" si="20">ABS(D35-B35)</f>
+      <c r="F35" s="16">
+        <f t="shared" ref="F35:F36" si="21">ABS(D35-B35)</f>
         <v>2.5468277816020901E-2</v>
       </c>
-      <c r="G35" s="1">
-        <f t="shared" ref="G35:G36" si="21">ABS(E35-C35)</f>
+      <c r="G35" s="16">
+        <f t="shared" ref="G35:G36" si="22">ABS(E35-C35)</f>
         <v>0.16428941029075017</v>
       </c>
-      <c r="H35" s="17" t="str">
-        <f t="shared" ref="H35:H36" si="22">IF(AND(F35&lt;$M$3,G35&lt;$M$3),"ДА","НЕТ")</f>
-        <v>НЕТ</v>
-      </c>
-      <c r="I35" s="18"/>
+      <c r="H35" s="6" t="str">
+        <f t="shared" ref="H35:H36" si="23">IF(AND(F35&lt;$M$3,G35&lt;$M$3),"ДА","НЕТ")</f>
+        <v>НЕТ</v>
+      </c>
+      <c r="I35" s="7"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1843,35 +1849,35 @@
       <c r="A36" s="1">
         <v>6</v>
       </c>
-      <c r="B36" s="1">
-        <f t="shared" si="17"/>
+      <c r="B36" s="16">
+        <f t="shared" si="18"/>
         <v>3.4582072192098736</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="18"/>
+      <c r="C36" s="16">
+        <f t="shared" si="19"/>
         <v>1.2591085666943778</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="12"/>
+      <c r="D36" s="16">
+        <f t="shared" si="13"/>
         <v>3.306665511797132</v>
       </c>
-      <c r="E36" s="1">
-        <f t="shared" si="19"/>
+      <c r="E36" s="16">
+        <f t="shared" si="20"/>
         <v>1.2754395293551377</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="20"/>
+      <c r="F36" s="16">
+        <f t="shared" si="21"/>
         <v>0.15154170741274164</v>
       </c>
-      <c r="G36" s="1">
-        <f t="shared" si="21"/>
+      <c r="G36" s="16">
+        <f t="shared" si="22"/>
         <v>1.6330962660759951E-2</v>
       </c>
-      <c r="H36" s="17" t="str">
-        <f t="shared" si="22"/>
-        <v>НЕТ</v>
-      </c>
-      <c r="I36" s="18"/>
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="23"/>
+        <v>НЕТ</v>
+      </c>
+      <c r="I36" s="7"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -1881,35 +1887,35 @@
       <c r="A37" s="1">
         <v>7</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="16">
         <f>D36</f>
         <v>3.306665511797132</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="16">
         <f>E36</f>
         <v>1.2754395293551377</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="16">
         <f>3+COS(C37)</f>
         <v>3.2910812161649026</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="16">
         <f>-COS(B37-1)+0.5</f>
         <v>1.1712316904133329</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="16">
         <f>ABS(D37-B37)</f>
         <v>1.5584295632229406E-2</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="16">
         <f>ABS(E37-C37)</f>
         <v>0.10420783894180485</v>
       </c>
-      <c r="H37" s="17" t="str">
+      <c r="H37" s="6" t="str">
         <f>IF(AND(F37&lt;$M$3,G37&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="7"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -1919,35 +1925,35 @@
       <c r="A38" s="1">
         <v>8</v>
       </c>
-      <c r="B38" s="1">
-        <f t="shared" ref="B38:B39" si="23">D37</f>
+      <c r="B38" s="16">
+        <f t="shared" ref="B38:B39" si="24">D37</f>
         <v>3.2910812161649026</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" ref="C38:C39" si="24">E37</f>
+      <c r="C38" s="16">
+        <f t="shared" ref="C38:C39" si="25">E37</f>
         <v>1.1712316904133329</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="12"/>
+      <c r="D38" s="16">
+        <f t="shared" si="13"/>
         <v>3.3890173089687048</v>
       </c>
-      <c r="E38" s="1">
-        <f t="shared" ref="E38:E39" si="25">-COS(B38-1)+0.5</f>
+      <c r="E38" s="16">
+        <f t="shared" ref="E38:E39" si="26">-COS(B38-1)+0.5</f>
         <v>1.1595988266706438</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" ref="F38:F39" si="26">ABS(D38-B38)</f>
+      <c r="F38" s="16">
+        <f t="shared" ref="F38:F39" si="27">ABS(D38-B38)</f>
         <v>9.7936092803802222E-2</v>
       </c>
-      <c r="G38" s="1">
-        <f t="shared" ref="G38:G39" si="27">ABS(E38-C38)</f>
+      <c r="G38" s="16">
+        <f t="shared" ref="G38:G39" si="28">ABS(E38-C38)</f>
         <v>1.1632863742689015E-2</v>
       </c>
-      <c r="H38" s="17" t="str">
-        <f t="shared" ref="H38:H39" si="28">IF(AND(F38&lt;$M$3,G38&lt;$M$3),"ДА","НЕТ")</f>
-        <v>НЕТ</v>
-      </c>
-      <c r="I38" s="18"/>
+      <c r="H38" s="6" t="str">
+        <f t="shared" ref="H38:H39" si="29">IF(AND(F38&lt;$M$3,G38&lt;$M$3),"ДА","НЕТ")</f>
+        <v>НЕТ</v>
+      </c>
+      <c r="I38" s="7"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -1957,35 +1963,35 @@
       <c r="A39" s="1">
         <v>9</v>
       </c>
-      <c r="B39" s="1">
-        <f t="shared" si="23"/>
+      <c r="B39" s="16">
+        <f t="shared" si="24"/>
         <v>3.3890173089687048</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="24"/>
+      <c r="C39" s="16">
+        <f t="shared" si="25"/>
         <v>1.1595988266706438</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="12"/>
+      <c r="D39" s="16">
+        <f t="shared" si="13"/>
         <v>3.3997072942170581</v>
       </c>
-      <c r="E39" s="1">
-        <f t="shared" si="25"/>
+      <c r="E39" s="16">
+        <f t="shared" si="26"/>
         <v>1.2299309896748927</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="26"/>
+      <c r="F39" s="16">
+        <f t="shared" si="27"/>
         <v>1.0689985248353295E-2</v>
       </c>
-      <c r="G39" s="1">
-        <f t="shared" si="27"/>
+      <c r="G39" s="16">
+        <f t="shared" si="28"/>
         <v>7.0332163004248827E-2</v>
       </c>
-      <c r="H39" s="17" t="str">
-        <f t="shared" si="28"/>
-        <v>НЕТ</v>
-      </c>
-      <c r="I39" s="18"/>
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="29"/>
+        <v>НЕТ</v>
+      </c>
+      <c r="I39" s="7"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -1995,35 +2001,35 @@
       <c r="A40" s="1">
         <v>10</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="16">
         <f>D39</f>
         <v>3.3997072942170581</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="16">
         <f>E39</f>
         <v>1.2299309896748927</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="16">
         <f>3+COS(C40)</f>
         <v>3.3343027677871913</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="16">
         <f>-COS(B40-1)+0.5</f>
         <v>1.2371959719762362</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="16">
         <f>ABS(D40-B40)</f>
         <v>6.5404526429866827E-2</v>
       </c>
-      <c r="G40" s="1">
+      <c r="G40" s="16">
         <f>ABS(E40-C40)</f>
         <v>7.2649823013435366E-3</v>
       </c>
-      <c r="H40" s="17" t="str">
+      <c r="H40" s="6" t="str">
         <f>IF(AND(F40&lt;$M$3,G40&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I40" s="18"/>
+      <c r="I40" s="7"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2033,35 +2039,35 @@
       <c r="A41" s="1">
         <v>11</v>
       </c>
-      <c r="B41" s="1">
-        <f t="shared" ref="B41:B42" si="29">D40</f>
+      <c r="B41" s="16">
+        <f t="shared" ref="B41:B42" si="30">D40</f>
         <v>3.3343027677871913</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" ref="C41:C42" si="30">E40</f>
+      <c r="C41" s="16">
+        <f t="shared" ref="C41:C42" si="31">E40</f>
         <v>1.2371959719762362</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="12"/>
+      <c r="D41" s="16">
+        <f t="shared" si="13"/>
         <v>3.3274470089359607</v>
       </c>
-      <c r="E41" s="1">
-        <f t="shared" ref="E41:E42" si="31">-COS(B41-1)+0.5</f>
+      <c r="E41" s="16">
+        <f t="shared" ref="E41:E42" si="32">-COS(B41-1)+0.5</f>
         <v>1.1914587994186179</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" ref="F41:F42" si="32">ABS(D41-B41)</f>
+      <c r="F41" s="16">
+        <f t="shared" ref="F41:F42" si="33">ABS(D41-B41)</f>
         <v>6.8557588512305756E-3</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" ref="G41:G42" si="33">ABS(E41-C41)</f>
+      <c r="G41" s="16">
+        <f t="shared" ref="G41:G42" si="34">ABS(E41-C41)</f>
         <v>4.5737172557618333E-2</v>
       </c>
-      <c r="H41" s="17" t="str">
-        <f t="shared" ref="H41:H42" si="34">IF(AND(F41&lt;$M$3,G41&lt;$M$3),"ДА","НЕТ")</f>
-        <v>НЕТ</v>
-      </c>
-      <c r="I41" s="18"/>
+      <c r="H41" s="6" t="str">
+        <f t="shared" ref="H41:H42" si="35">IF(AND(F41&lt;$M$3,G41&lt;$M$3),"ДА","НЕТ")</f>
+        <v>НЕТ</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2071,35 +2077,35 @@
       <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B42" s="1">
-        <f t="shared" si="29"/>
+      <c r="B42" s="16">
+        <f t="shared" si="30"/>
         <v>3.3274470089359607</v>
       </c>
-      <c r="C42" s="1">
-        <f t="shared" si="30"/>
+      <c r="C42" s="16">
+        <f t="shared" si="31"/>
         <v>1.1914587994186179</v>
       </c>
-      <c r="D42" s="1">
-        <f t="shared" si="12"/>
+      <c r="D42" s="16">
+        <f t="shared" si="13"/>
         <v>3.370305173167369</v>
       </c>
-      <c r="E42" s="1">
-        <f t="shared" si="31"/>
+      <c r="E42" s="16">
+        <f t="shared" si="32"/>
         <v>1.1864898793212451</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="32"/>
+      <c r="F42" s="16">
+        <f t="shared" si="33"/>
         <v>4.2858164231408313E-2</v>
       </c>
-      <c r="G42" s="1">
-        <f t="shared" si="33"/>
+      <c r="G42" s="16">
+        <f t="shared" si="34"/>
         <v>4.9689200973728198E-3</v>
       </c>
-      <c r="H42" s="17" t="str">
-        <f t="shared" si="34"/>
-        <v>НЕТ</v>
-      </c>
-      <c r="I42" s="18"/>
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="35"/>
+        <v>НЕТ</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2109,35 +2115,35 @@
       <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="16">
         <f>D42</f>
         <v>3.370305173167369</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C43" s="16">
         <f>E42</f>
         <v>1.1864898793212451</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="16">
         <f>3+COS(C43)</f>
         <v>3.3749162630798306</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="16">
         <f>-COS(B43-1)+0.5</f>
         <v>1.2170138143610822</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="16">
         <f>ABS(D43-B43)</f>
         <v>4.6110899124616189E-3</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="16">
         <f>ABS(E43-C43)</f>
         <v>3.0523935039837191E-2</v>
       </c>
-      <c r="H43" s="17" t="str">
+      <c r="H43" s="6" t="str">
         <f>IF(AND(F43&lt;$M$3,G43&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I43" s="18"/>
+      <c r="I43" s="7"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2147,35 +2153,35 @@
       <c r="A44" s="1">
         <v>14</v>
       </c>
-      <c r="B44" s="1">
-        <f t="shared" ref="B44:B45" si="35">D43</f>
+      <c r="B44" s="16">
+        <f t="shared" ref="B44:B45" si="36">D43</f>
         <v>3.3749162630798306</v>
       </c>
-      <c r="C44" s="1">
-        <f t="shared" ref="C44:C45" si="36">E43</f>
+      <c r="C44" s="16">
+        <f t="shared" ref="C44:C45" si="37">E43</f>
         <v>1.2170138143610822</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="12"/>
+      <c r="D44" s="16">
+        <f t="shared" si="13"/>
         <v>3.3464485349637982</v>
       </c>
-      <c r="E44" s="1">
-        <f t="shared" ref="E44:E45" si="37">-COS(B44-1)+0.5</f>
+      <c r="E44" s="16">
+        <f t="shared" ref="E44:E45" si="38">-COS(B44-1)+0.5</f>
         <v>1.2202203818833661</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" ref="F44:F45" si="38">ABS(D44-B44)</f>
+      <c r="F44" s="16">
+        <f t="shared" ref="F44:F45" si="39">ABS(D44-B44)</f>
         <v>2.8467728116032376E-2</v>
       </c>
-      <c r="G44" s="1">
-        <f t="shared" ref="G44:G45" si="39">ABS(E44-C44)</f>
+      <c r="G44" s="16">
+        <f t="shared" ref="G44:G45" si="40">ABS(E44-C44)</f>
         <v>3.2065675222838763E-3</v>
       </c>
-      <c r="H44" s="17" t="str">
-        <f t="shared" ref="H44:H45" si="40">IF(AND(F44&lt;$M$3,G44&lt;$M$3),"ДА","НЕТ")</f>
-        <v>НЕТ</v>
-      </c>
-      <c r="I44" s="18"/>
+      <c r="H44" s="6" t="str">
+        <f t="shared" ref="H44:H45" si="41">IF(AND(F44&lt;$M$3,G44&lt;$M$3),"ДА","НЕТ")</f>
+        <v>НЕТ</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2185,35 +2191,35 @@
       <c r="A45" s="1">
         <v>15</v>
       </c>
-      <c r="B45" s="1">
-        <f t="shared" si="35"/>
+      <c r="B45" s="16">
+        <f t="shared" si="36"/>
         <v>3.3464485349637982</v>
       </c>
-      <c r="C45" s="1">
-        <f t="shared" si="36"/>
+      <c r="C45" s="16">
+        <f t="shared" si="37"/>
         <v>1.2202203818833661</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" si="12"/>
+      <c r="D45" s="16">
+        <f t="shared" si="13"/>
         <v>3.3434387774877856</v>
       </c>
-      <c r="E45" s="1">
-        <f t="shared" si="37"/>
+      <c r="E45" s="16">
+        <f t="shared" si="38"/>
         <v>1.200181877726985</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="38"/>
+      <c r="F45" s="16">
+        <f t="shared" si="39"/>
         <v>3.00975747601262E-3</v>
       </c>
-      <c r="G45" s="1">
-        <f t="shared" si="39"/>
+      <c r="G45" s="16">
+        <f t="shared" si="40"/>
         <v>2.0038504156381087E-2</v>
       </c>
-      <c r="H45" s="17" t="str">
-        <f t="shared" si="40"/>
-        <v>НЕТ</v>
-      </c>
-      <c r="I45" s="18"/>
+      <c r="H45" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v>НЕТ</v>
+      </c>
+      <c r="I45" s="7"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2223,35 +2229,35 @@
       <c r="A46" s="1">
         <v>16</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="16">
         <f>D45</f>
         <v>3.3434387774877856</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C46" s="16">
         <f>E45</f>
         <v>1.200181877726985</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="16">
         <f>3+COS(C46)</f>
         <v>3.3621882313338833</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="16">
         <f>-COS(B46-1)+0.5</f>
         <v>1.1980298495693726</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="16">
         <f>ABS(D46-B46)</f>
         <v>1.8749453846097719E-2</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="16">
         <f>ABS(E46-C46)</f>
         <v>2.1520281576123956E-3</v>
       </c>
-      <c r="H46" s="17" t="str">
+      <c r="H46" s="6" t="str">
         <f>IF(AND(F46&lt;$M$3,G46&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I46" s="18"/>
+      <c r="I46" s="7"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2261,35 +2267,35 @@
       <c r="A47" s="1">
         <v>17</v>
       </c>
-      <c r="B47" s="1">
-        <f t="shared" ref="B47:B48" si="41">D46</f>
+      <c r="B47" s="16">
+        <f t="shared" ref="B47:B48" si="42">D46</f>
         <v>3.3621882313338833</v>
       </c>
-      <c r="C47" s="1">
-        <f t="shared" ref="C47:C48" si="42">E46</f>
+      <c r="C47" s="16">
+        <f t="shared" ref="C47:C48" si="43">E46</f>
         <v>1.1980298495693726</v>
       </c>
-      <c r="D47" s="1">
-        <f t="shared" si="12"/>
+      <c r="D47" s="16">
+        <f t="shared" si="13"/>
         <v>3.3641933072510852</v>
       </c>
-      <c r="E47" s="1">
-        <f t="shared" ref="E47:E48" si="43">-COS(B47-1)+0.5</f>
+      <c r="E47" s="16">
+        <f t="shared" ref="E47:E48" si="44">-COS(B47-1)+0.5</f>
         <v>1.2113322694723878</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" ref="F47:F48" si="44">ABS(D47-B47)</f>
+      <c r="F47" s="16">
+        <f t="shared" ref="F47:F48" si="45">ABS(D47-B47)</f>
         <v>2.0050759172018928E-3</v>
       </c>
-      <c r="G47" s="1">
-        <f t="shared" ref="G47:G48" si="45">ABS(E47-C47)</f>
+      <c r="G47" s="16">
+        <f t="shared" ref="G47:G48" si="46">ABS(E47-C47)</f>
         <v>1.3302419903015172E-2</v>
       </c>
-      <c r="H47" s="17" t="str">
-        <f t="shared" ref="H47:H48" si="46">IF(AND(F47&lt;$M$3,G47&lt;$M$3),"ДА","НЕТ")</f>
-        <v>НЕТ</v>
-      </c>
-      <c r="I47" s="18"/>
+      <c r="H47" s="6" t="str">
+        <f t="shared" ref="H47:H48" si="47">IF(AND(F47&lt;$M$3,G47&lt;$M$3),"ДА","НЕТ")</f>
+        <v>НЕТ</v>
+      </c>
+      <c r="I47" s="7"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2299,35 +2305,35 @@
       <c r="A48" s="1">
         <v>18</v>
       </c>
-      <c r="B48" s="1">
-        <f t="shared" si="41"/>
+      <c r="B48" s="16">
+        <f t="shared" si="42"/>
         <v>3.3641933072510852</v>
       </c>
-      <c r="C48" s="1">
-        <f t="shared" si="42"/>
+      <c r="C48" s="16">
+        <f t="shared" si="43"/>
         <v>1.2113322694723878</v>
       </c>
-      <c r="D48" s="1">
-        <f t="shared" si="12"/>
+      <c r="D48" s="16">
+        <f t="shared" si="13"/>
         <v>3.3517725956568998</v>
       </c>
-      <c r="E48" s="1">
-        <f t="shared" si="43"/>
+      <c r="E48" s="16">
+        <f t="shared" si="44"/>
         <v>1.2127401180522721</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="44"/>
+      <c r="F48" s="16">
+        <f t="shared" si="45"/>
         <v>1.2420711594185452E-2</v>
       </c>
-      <c r="G48" s="1">
-        <f t="shared" si="45"/>
+      <c r="G48" s="16">
+        <f t="shared" si="46"/>
         <v>1.4078485798842966E-3</v>
       </c>
-      <c r="H48" s="17" t="str">
-        <f t="shared" si="46"/>
-        <v>НЕТ</v>
-      </c>
-      <c r="I48" s="18"/>
+      <c r="H48" s="6" t="str">
+        <f t="shared" si="47"/>
+        <v>НЕТ</v>
+      </c>
+      <c r="I48" s="7"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2337,35 +2343,35 @@
       <c r="A49" s="1">
         <v>19</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="16">
         <f>D48</f>
         <v>3.3517725956568998</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="16">
         <f>E48</f>
         <v>1.2127401180522721</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="17">
         <f>3+COS(C49)</f>
         <v>3.3504543808540346</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" s="17">
         <f>-COS(B49-1)+0.5</f>
         <v>1.2039731266928055</v>
       </c>
-      <c r="F49" s="1">
+      <c r="F49" s="16">
         <f>ABS(D49-B49)</f>
         <v>1.318214802865203E-3</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="16">
         <f>ABS(E49-C49)</f>
         <v>8.7669913594665694E-3</v>
       </c>
-      <c r="H49" s="17" t="str">
+      <c r="H49" s="14" t="str">
         <f>IF(AND(F49&lt;$M$3,G49&lt;$M$3),"ДА","НЕТ")</f>
         <v>ДА</v>
       </c>
-      <c r="I49" s="18"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2379,8 +2385,8 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="18"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="7"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2394,8 +2400,8 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="18"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="7"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2409,8 +2415,8 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="18"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2424,8 +2430,8 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="18"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="7"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2439,8 +2445,8 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="7"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2448,23 +2454,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H54:I54"/>
@@ -2474,14 +2471,23 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Вычмат/lab2/Вычислительный.xlsx
+++ b/Вычмат/lab2/Вычислительный.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\docs_for_labs\Вычмат\lab2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs_for_labs\docs_for_labs\Вычмат\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706DB8D6-0F0B-4463-AD97-4E64742EE1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -356,17 +355,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,17 +385,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,27 +677,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:I49"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="7.81640625" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="14" max="14" width="46.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7265625" customWidth="1"/>
+    <col min="14" max="14" width="46.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -736,33 +735,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="6">
         <f>(C2+B2)/2</f>
         <v>2.5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="6">
         <f>B2^3+2.84*B2^2-5.606*B2-14.766</f>
         <v>-6.6180000000000003</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="6">
         <f>C2^3+2.84*C2^2-5.606*C2-14.766</f>
         <v>20.976000000000006</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="6">
         <f>D2^3+2.84*D2^2-5.606*D2-14.766</f>
         <v>4.5939999999999994</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="6">
         <f>C2-B2</f>
         <v>1</v>
       </c>
@@ -778,35 +777,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="6">
         <f>IF(G2&gt;=0,B2,D2)</f>
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="6">
         <f>IF(G2&gt;=0,D2,C2)</f>
         <v>2.5</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D9" si="0">(C3+B3)/2</f>
         <v>2.25</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E9" si="1">B3^3+2.84*B3^2-5.606*B3-14.766</f>
         <v>-6.6180000000000003</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F9" si="2">C3^3+2.84*C3^2-5.606*C3-14.766</f>
         <v>4.5939999999999994</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G9" si="3">D3^3+2.84*D3^2-5.606*D3-14.766</f>
         <v>-1.6113750000000024</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="6">
         <f t="shared" ref="H3:H9" si="4">C3-B3</f>
         <v>0.5</v>
       </c>
@@ -826,35 +825,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="6">
         <f t="shared" ref="B4:B9" si="6">IF(G3&gt;=0,B3,D3)</f>
         <v>2.25</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="6">
         <f t="shared" ref="C4:C9" si="7">IF(G3&gt;=0,D3,C3)</f>
         <v>2.5</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>2.375</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="6">
         <f t="shared" si="1"/>
         <v>-1.6113750000000024</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>4.5939999999999994</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="6">
         <f t="shared" si="3"/>
         <v>1.3356093750000024</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="6">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
@@ -873,35 +872,35 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="6">
         <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="6">
         <f t="shared" si="7"/>
         <v>2.375</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="6">
         <f t="shared" si="0"/>
         <v>2.3125</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="6">
         <f t="shared" si="1"/>
         <v>-1.6113750000000024</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="6">
         <f t="shared" si="2"/>
         <v>1.3356093750000024</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="6">
         <f t="shared" si="3"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="6">
         <f t="shared" si="4"/>
         <v>0.125</v>
       </c>
@@ -914,35 +913,35 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="6">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="6">
         <f t="shared" si="7"/>
         <v>2.375</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>2.34375</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="6">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="6">
         <f t="shared" si="2"/>
         <v>1.3356093750000024</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="6">
         <f t="shared" si="3"/>
         <v>0.57012670898437534</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="6">
         <f t="shared" si="4"/>
         <v>6.25E-2</v>
       </c>
@@ -955,35 +954,35 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="6">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="6">
         <f t="shared" si="7"/>
         <v>2.34375</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>2.328125</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="6">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="6">
         <f t="shared" si="2"/>
         <v>0.57012670898437534</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="6">
         <f t="shared" si="3"/>
         <v>0.19462673950195253</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="6">
         <f t="shared" si="4"/>
         <v>3.125E-2</v>
       </c>
@@ -996,35 +995,35 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="6">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="6">
         <f t="shared" si="7"/>
         <v>2.328125</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>2.3203125</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="6">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="6">
         <f t="shared" si="2"/>
         <v>0.19462673950195253</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="6">
         <f t="shared" si="3"/>
         <v>8.6770820617676492E-3</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="6">
         <f t="shared" si="4"/>
         <v>1.5625E-2</v>
       </c>
@@ -1037,35 +1036,35 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="6">
         <f t="shared" si="6"/>
         <v>2.3125</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="6">
         <f t="shared" si="7"/>
         <v>2.3203125</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
         <v>2.31640625</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="6">
         <f t="shared" si="1"/>
         <v>-0.17607617187500324</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="6">
         <f t="shared" si="2"/>
         <v>8.6770820617676492E-3</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="6">
         <f t="shared" si="3"/>
         <v>-8.384891653060933E-2</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="6">
         <f t="shared" si="4"/>
         <v>7.8125E-3</v>
       </c>
@@ -1078,7 +1077,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1099,7 +1098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1124,7 +1123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>5</v>
@@ -1154,7 +1153,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,28 +1185,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0</v>
       </c>
-      <c r="B14" s="16">
-        <v>-3</v>
-      </c>
-      <c r="C14" s="16">
+      <c r="B14" s="6">
+        <f>C11</f>
+        <v>-4</v>
+      </c>
+      <c r="C14" s="6">
         <f t="shared" ref="C14:D16" si="8">B14+$K$12*(B14^3+2.84*B14^2-5.606*B14-14.766)</f>
-        <v>-3.1357148734177209</v>
-      </c>
-      <c r="D14" s="16">
+        <v>-1.5824124999999993</v>
+      </c>
+      <c r="D14" s="6">
         <f t="shared" si="8"/>
-        <v>-3.1146789898905025</v>
-      </c>
-      <c r="E14" s="16">
+        <v>-0.97347858977820867</v>
+      </c>
+      <c r="E14" s="6">
         <f>(D14^3+2.84*D14^2-5.606*D14-14.766)</f>
-        <v>3.0167675925133253E-2</v>
-      </c>
-      <c r="F14" s="16">
+        <v>-7.5398502919623507</v>
+      </c>
+      <c r="F14" s="6">
         <f>ABS(C14-B14)</f>
-        <v>0.13571487341772093</v>
+        <v>2.4175875000000007</v>
       </c>
       <c r="G14" s="10" t="str">
         <f>IF(F14&lt;=$M$3,"ДА","НЕТ")</f>
@@ -1220,29 +1220,29 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="6">
         <f>C14</f>
-        <v>-3.1357148734177209</v>
-      </c>
-      <c r="C15" s="16">
+        <v>-1.5824124999999993</v>
+      </c>
+      <c r="C15" s="6">
         <f t="shared" si="8"/>
-        <v>-3.1146789898905025</v>
-      </c>
-      <c r="D15" s="16">
+        <v>-0.97347858977820867</v>
+      </c>
+      <c r="D15" s="6">
         <f t="shared" si="8"/>
-        <v>-3.1213688629615586</v>
-      </c>
-      <c r="E15" s="16">
+        <v>0.69853093303591052</v>
+      </c>
+      <c r="E15" s="6">
         <f>(D15^3+2.84*D15^2-5.606*D15-14.766)</f>
-        <v>-8.9671108653579523E-3</v>
-      </c>
-      <c r="F15" s="16">
+        <v>-16.955354291156965</v>
+      </c>
+      <c r="F15" s="6">
         <f>ABS(C15-B15)</f>
-        <v>2.1035883527218413E-2</v>
+        <v>0.60893391022179066</v>
       </c>
       <c r="G15" s="10" t="str">
         <f>IF(F15&lt;=$M$3,"ДА","НЕТ")</f>
@@ -1255,33 +1255,33 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <f>C15</f>
-        <v>-3.1146789898905025</v>
-      </c>
-      <c r="C16" s="18">
+        <v>-0.97347858977820867</v>
+      </c>
+      <c r="C16" s="8">
         <f t="shared" si="8"/>
-        <v>-3.1213688629615586</v>
-      </c>
-      <c r="D16" s="19">
+        <v>0.69853093303591052</v>
+      </c>
+      <c r="D16" s="9">
         <f t="shared" si="8"/>
-        <v>-3.1193803493732992</v>
-      </c>
-      <c r="E16" s="16">
+        <v>4.4584880594688983</v>
+      </c>
+      <c r="E16" s="6">
         <f>(D16^3+2.84*D16^2-5.606*D16-14.766)</f>
-        <v>2.7263159959804995E-3</v>
-      </c>
-      <c r="F16" s="16">
+        <v>105.31990657760828</v>
+      </c>
+      <c r="F16" s="6">
         <f>ABS(C16-B16)</f>
-        <v>6.6898730710560628E-3</v>
+        <v>1.6720095228141192</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;=$M$3,"ДА","НЕТ")</f>
-        <v>ДА</v>
+        <v>НЕТ</v>
       </c>
       <c r="H16" s="15"/>
       <c r="I16" s="1"/>
@@ -1290,7 +1290,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1305,7 +1305,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1326,7 +1326,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -1354,7 +1354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>5</v>
@@ -1390,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1408,7 +1408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1437,27 +1437,27 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="6">
         <f>H20</f>
         <v>-2</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="6">
         <f>B23^3+2.84*B23^2-5.606*B23-14.766</f>
         <v>-0.19400000000000084</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="6">
         <f>3*B23^2+5.68*B23-5.606</f>
         <v>-4.9659999999999993</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="6">
         <f>B23-C23/D23</f>
         <v>-2.0390656463954895</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="6">
         <f>ABS(E23-B23)</f>
         <v>3.9065646395489484E-2</v>
       </c>
@@ -1472,27 +1472,27 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="7">
         <f>E23</f>
         <v>-2.0390656463954895</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="6">
         <f>B24^3+2.84*B24^2-5.606*B24-14.766</f>
         <v>-4.8821731904116206E-3</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="6">
         <f>3*B24^2+5.68*B24-5.606</f>
         <v>-4.7145267405956144</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="6">
         <f>B24-C24/D24</f>
         <v>-2.0401012059455863</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="6">
         <f t="shared" ref="F24" si="9">ABS(E24-B24)</f>
         <v>1.0355595500968207E-3</v>
       </c>
@@ -1507,7 +1507,7 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1522,7 +1522,7 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1542,7 +1542,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
@@ -1564,7 +1564,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
@@ -1586,7 +1586,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1608,762 +1608,762 @@
       <c r="G29" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H29" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="9"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="6">
         <f>D28</f>
         <v>3</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="6">
         <f>D27</f>
         <v>1</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="6">
         <f>3+COS(C30)</f>
         <v>3.5403023058681398</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="6">
         <f>-COS(B30-1)+0.5</f>
         <v>0.91614683654714235</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="6">
         <f>ABS(D30-B30)</f>
         <v>0.54030230586813977</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="6">
         <f>ABS(E30-C30)</f>
         <v>8.3853163452857649E-2</v>
       </c>
-      <c r="H30" s="6" t="str">
+      <c r="H30" s="16" t="str">
         <f>IF(AND(F30&lt;$M$3,G30&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I30" s="7"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="6">
         <f>D30</f>
         <v>3.5403023058681398</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="6">
         <f>E30</f>
         <v>0.91614683654714235</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="6">
         <f>3+COS(C31)</f>
         <v>3.6088812348825443</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="6">
         <f>-COS(B31-1)+0.5</f>
         <v>1.3246063428921</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="6">
         <f>ABS(D31-B31)</f>
         <v>6.8578929014404544E-2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="6">
         <f>ABS(E31-C31)</f>
         <v>0.40845950634495765</v>
       </c>
-      <c r="H31" s="6" t="str">
+      <c r="H31" s="16" t="str">
         <f>IF(AND(F31&lt;$M$3,G31&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I31" s="7"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>2</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="6">
         <f t="shared" ref="B32:B33" si="11">D31</f>
         <v>3.6088812348825443</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="6">
         <f t="shared" ref="C32:C33" si="12">E31</f>
         <v>1.3246063428921</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="6">
         <f t="shared" ref="D32:D48" si="13">3+COS(C32)</f>
         <v>3.2437106005789911</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="6">
         <f t="shared" ref="E32:E33" si="14">-COS(B32-1)+0.5</f>
         <v>1.3614331880489516</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="6">
         <f t="shared" ref="F32:F33" si="15">ABS(D32-B32)</f>
         <v>0.36517063430355323</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="6">
         <f t="shared" ref="G32:G33" si="16">ABS(E32-C32)</f>
         <v>3.682684515685164E-2</v>
       </c>
-      <c r="H32" s="6" t="str">
+      <c r="H32" s="16" t="str">
         <f t="shared" ref="H32:H33" si="17">IF(AND(F32&lt;$M$3,G32&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I32" s="7"/>
+      <c r="I32" s="17"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>3</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="6">
         <f t="shared" si="11"/>
         <v>3.2437106005789911</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="6">
         <f t="shared" si="12"/>
         <v>1.3614331880489516</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="6">
         <f t="shared" si="13"/>
         <v>3.2078369876184896</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="6">
         <f t="shared" si="14"/>
         <v>1.1232676177229135</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="6">
         <f t="shared" si="15"/>
         <v>3.5873612960501511E-2</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="6">
         <f t="shared" si="16"/>
         <v>0.23816557032603813</v>
       </c>
-      <c r="H33" s="6" t="str">
+      <c r="H33" s="16" t="str">
         <f t="shared" si="17"/>
         <v>НЕТ</v>
       </c>
-      <c r="I33" s="7"/>
+      <c r="I33" s="17"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>4</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="6">
         <f>D33</f>
         <v>3.2078369876184896</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="6">
         <f>E33</f>
         <v>1.1232676177229135</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="6">
         <f>3+COS(C34)</f>
         <v>3.4327389413938527</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="6">
         <f>-COS(B34-1)+0.5</f>
         <v>1.0948191564036276</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="6">
         <f>ABS(D34-B34)</f>
         <v>0.22490195377536315</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="6">
         <f>ABS(E34-C34)</f>
         <v>2.8448461319285911E-2</v>
       </c>
-      <c r="H34" s="6" t="str">
+      <c r="H34" s="16" t="str">
         <f>IF(AND(F34&lt;$M$3,G34&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I34" s="7"/>
+      <c r="I34" s="17"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="6">
         <f t="shared" ref="B35:B36" si="18">D34</f>
         <v>3.4327389413938527</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="6">
         <f t="shared" ref="C35:C36" si="19">E34</f>
         <v>1.0948191564036276</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="6">
         <f t="shared" si="13"/>
         <v>3.4582072192098736</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="6">
         <f t="shared" ref="E35:E36" si="20">-COS(B35-1)+0.5</f>
         <v>1.2591085666943778</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="6">
         <f t="shared" ref="F35:F36" si="21">ABS(D35-B35)</f>
         <v>2.5468277816020901E-2</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="6">
         <f t="shared" ref="G35:G36" si="22">ABS(E35-C35)</f>
         <v>0.16428941029075017</v>
       </c>
-      <c r="H35" s="6" t="str">
+      <c r="H35" s="16" t="str">
         <f t="shared" ref="H35:H36" si="23">IF(AND(F35&lt;$M$3,G35&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I35" s="7"/>
+      <c r="I35" s="17"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>6</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="6">
         <f t="shared" si="18"/>
         <v>3.4582072192098736</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="6">
         <f t="shared" si="19"/>
         <v>1.2591085666943778</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="6">
         <f t="shared" si="13"/>
         <v>3.306665511797132</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="6">
         <f t="shared" si="20"/>
         <v>1.2754395293551377</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="6">
         <f t="shared" si="21"/>
         <v>0.15154170741274164</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="6">
         <f t="shared" si="22"/>
         <v>1.6330962660759951E-2</v>
       </c>
-      <c r="H36" s="6" t="str">
+      <c r="H36" s="16" t="str">
         <f t="shared" si="23"/>
         <v>НЕТ</v>
       </c>
-      <c r="I36" s="7"/>
+      <c r="I36" s="17"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>7</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="6">
         <f>D36</f>
         <v>3.306665511797132</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="6">
         <f>E36</f>
         <v>1.2754395293551377</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="6">
         <f>3+COS(C37)</f>
         <v>3.2910812161649026</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="6">
         <f>-COS(B37-1)+0.5</f>
         <v>1.1712316904133329</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="6">
         <f>ABS(D37-B37)</f>
         <v>1.5584295632229406E-2</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="6">
         <f>ABS(E37-C37)</f>
         <v>0.10420783894180485</v>
       </c>
-      <c r="H37" s="6" t="str">
+      <c r="H37" s="16" t="str">
         <f>IF(AND(F37&lt;$M$3,G37&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I37" s="7"/>
+      <c r="I37" s="17"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>8</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="6">
         <f t="shared" ref="B38:B39" si="24">D37</f>
         <v>3.2910812161649026</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="6">
         <f t="shared" ref="C38:C39" si="25">E37</f>
         <v>1.1712316904133329</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="6">
         <f t="shared" si="13"/>
         <v>3.3890173089687048</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="6">
         <f t="shared" ref="E38:E39" si="26">-COS(B38-1)+0.5</f>
         <v>1.1595988266706438</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="6">
         <f t="shared" ref="F38:F39" si="27">ABS(D38-B38)</f>
         <v>9.7936092803802222E-2</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="6">
         <f t="shared" ref="G38:G39" si="28">ABS(E38-C38)</f>
         <v>1.1632863742689015E-2</v>
       </c>
-      <c r="H38" s="6" t="str">
+      <c r="H38" s="16" t="str">
         <f t="shared" ref="H38:H39" si="29">IF(AND(F38&lt;$M$3,G38&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I38" s="7"/>
+      <c r="I38" s="17"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>9</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="6">
         <f t="shared" si="24"/>
         <v>3.3890173089687048</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="6">
         <f t="shared" si="25"/>
         <v>1.1595988266706438</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="6">
         <f t="shared" si="13"/>
         <v>3.3997072942170581</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="6">
         <f t="shared" si="26"/>
         <v>1.2299309896748927</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="6">
         <f t="shared" si="27"/>
         <v>1.0689985248353295E-2</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G39" s="6">
         <f t="shared" si="28"/>
         <v>7.0332163004248827E-2</v>
       </c>
-      <c r="H39" s="6" t="str">
+      <c r="H39" s="16" t="str">
         <f t="shared" si="29"/>
         <v>НЕТ</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="17"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>10</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="6">
         <f>D39</f>
         <v>3.3997072942170581</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="6">
         <f>E39</f>
         <v>1.2299309896748927</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="6">
         <f>3+COS(C40)</f>
         <v>3.3343027677871913</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="6">
         <f>-COS(B40-1)+0.5</f>
         <v>1.2371959719762362</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="6">
         <f>ABS(D40-B40)</f>
         <v>6.5404526429866827E-2</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="6">
         <f>ABS(E40-C40)</f>
         <v>7.2649823013435366E-3</v>
       </c>
-      <c r="H40" s="6" t="str">
+      <c r="H40" s="16" t="str">
         <f>IF(AND(F40&lt;$M$3,G40&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="17"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>11</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="6">
         <f t="shared" ref="B41:B42" si="30">D40</f>
         <v>3.3343027677871913</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="6">
         <f t="shared" ref="C41:C42" si="31">E40</f>
         <v>1.2371959719762362</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="6">
         <f t="shared" si="13"/>
         <v>3.3274470089359607</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="6">
         <f t="shared" ref="E41:E42" si="32">-COS(B41-1)+0.5</f>
         <v>1.1914587994186179</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="6">
         <f t="shared" ref="F41:F42" si="33">ABS(D41-B41)</f>
         <v>6.8557588512305756E-3</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="6">
         <f t="shared" ref="G41:G42" si="34">ABS(E41-C41)</f>
         <v>4.5737172557618333E-2</v>
       </c>
-      <c r="H41" s="6" t="str">
+      <c r="H41" s="16" t="str">
         <f t="shared" ref="H41:H42" si="35">IF(AND(F41&lt;$M$3,G41&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="17"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>12</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="6">
         <f t="shared" si="30"/>
         <v>3.3274470089359607</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="6">
         <f t="shared" si="31"/>
         <v>1.1914587994186179</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="6">
         <f t="shared" si="13"/>
         <v>3.370305173167369</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="6">
         <f t="shared" si="32"/>
         <v>1.1864898793212451</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="6">
         <f t="shared" si="33"/>
         <v>4.2858164231408313E-2</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="6">
         <f t="shared" si="34"/>
         <v>4.9689200973728198E-3</v>
       </c>
-      <c r="H42" s="6" t="str">
+      <c r="H42" s="16" t="str">
         <f t="shared" si="35"/>
         <v>НЕТ</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>13</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="6">
         <f>D42</f>
         <v>3.370305173167369</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="6">
         <f>E42</f>
         <v>1.1864898793212451</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="6">
         <f>3+COS(C43)</f>
         <v>3.3749162630798306</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="6">
         <f>-COS(B43-1)+0.5</f>
         <v>1.2170138143610822</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="6">
         <f>ABS(D43-B43)</f>
         <v>4.6110899124616189E-3</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="6">
         <f>ABS(E43-C43)</f>
         <v>3.0523935039837191E-2</v>
       </c>
-      <c r="H43" s="6" t="str">
+      <c r="H43" s="16" t="str">
         <f>IF(AND(F43&lt;$M$3,G43&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="17"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>14</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="6">
         <f t="shared" ref="B44:B45" si="36">D43</f>
         <v>3.3749162630798306</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="6">
         <f t="shared" ref="C44:C45" si="37">E43</f>
         <v>1.2170138143610822</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="6">
         <f t="shared" si="13"/>
         <v>3.3464485349637982</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="6">
         <f t="shared" ref="E44:E45" si="38">-COS(B44-1)+0.5</f>
         <v>1.2202203818833661</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="6">
         <f t="shared" ref="F44:F45" si="39">ABS(D44-B44)</f>
         <v>2.8467728116032376E-2</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="6">
         <f t="shared" ref="G44:G45" si="40">ABS(E44-C44)</f>
         <v>3.2065675222838763E-3</v>
       </c>
-      <c r="H44" s="6" t="str">
+      <c r="H44" s="16" t="str">
         <f t="shared" ref="H44:H45" si="41">IF(AND(F44&lt;$M$3,G44&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="17"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>15</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="6">
         <f t="shared" si="36"/>
         <v>3.3464485349637982</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="6">
         <f t="shared" si="37"/>
         <v>1.2202203818833661</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="6">
         <f t="shared" si="13"/>
         <v>3.3434387774877856</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="6">
         <f t="shared" si="38"/>
         <v>1.200181877726985</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="6">
         <f t="shared" si="39"/>
         <v>3.00975747601262E-3</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G45" s="6">
         <f t="shared" si="40"/>
         <v>2.0038504156381087E-2</v>
       </c>
-      <c r="H45" s="6" t="str">
+      <c r="H45" s="16" t="str">
         <f t="shared" si="41"/>
         <v>НЕТ</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="17"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>16</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="6">
         <f>D45</f>
         <v>3.3434387774877856</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="6">
         <f>E45</f>
         <v>1.200181877726985</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="6">
         <f>3+COS(C46)</f>
         <v>3.3621882313338833</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="6">
         <f>-COS(B46-1)+0.5</f>
         <v>1.1980298495693726</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="6">
         <f>ABS(D46-B46)</f>
         <v>1.8749453846097719E-2</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="6">
         <f>ABS(E46-C46)</f>
         <v>2.1520281576123956E-3</v>
       </c>
-      <c r="H46" s="6" t="str">
+      <c r="H46" s="16" t="str">
         <f>IF(AND(F46&lt;$M$3,G46&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="17"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>17</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="6">
         <f t="shared" ref="B47:B48" si="42">D46</f>
         <v>3.3621882313338833</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="6">
         <f t="shared" ref="C47:C48" si="43">E46</f>
         <v>1.1980298495693726</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="6">
         <f t="shared" si="13"/>
         <v>3.3641933072510852</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="6">
         <f t="shared" ref="E47:E48" si="44">-COS(B47-1)+0.5</f>
         <v>1.2113322694723878</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="6">
         <f t="shared" ref="F47:F48" si="45">ABS(D47-B47)</f>
         <v>2.0050759172018928E-3</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="6">
         <f t="shared" ref="G47:G48" si="46">ABS(E47-C47)</f>
         <v>1.3302419903015172E-2</v>
       </c>
-      <c r="H47" s="6" t="str">
+      <c r="H47" s="16" t="str">
         <f t="shared" ref="H47:H48" si="47">IF(AND(F47&lt;$M$3,G47&lt;$M$3),"ДА","НЕТ")</f>
         <v>НЕТ</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="17"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>18</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="6">
         <f t="shared" si="42"/>
         <v>3.3641933072510852</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="6">
         <f t="shared" si="43"/>
         <v>1.2113322694723878</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="6">
         <f t="shared" si="13"/>
         <v>3.3517725956568998</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="6">
         <f t="shared" si="44"/>
         <v>1.2127401180522721</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="6">
         <f t="shared" si="45"/>
         <v>1.2420711594185452E-2</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="6">
         <f t="shared" si="46"/>
         <v>1.4078485798842966E-3</v>
       </c>
-      <c r="H48" s="6" t="str">
+      <c r="H48" s="16" t="str">
         <f t="shared" si="47"/>
         <v>НЕТ</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="I48" s="17"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>19</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="6">
         <f>D48</f>
         <v>3.3517725956568998</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="6">
         <f>E48</f>
         <v>1.2127401180522721</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D49" s="7">
         <f>3+COS(C49)</f>
         <v>3.3504543808540346</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="7">
         <f>-COS(B49-1)+0.5</f>
         <v>1.2039731266928055</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="6">
         <f>ABS(D49-B49)</f>
         <v>1.318214802865203E-3</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="6">
         <f>ABS(E49-C49)</f>
         <v>8.7669913594665694E-3</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2385,14 +2385,14 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="7"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="17"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2400,14 +2400,14 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="7"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="17"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2415,14 +2415,14 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="7"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="17"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2430,14 +2430,14 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="7"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="17"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2445,8 +2445,8 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="7"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="17"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2454,14 +2454,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H53:I53"/>
     <mergeCell ref="H54:I54"/>
@@ -2471,11 +2473,6 @@
     <mergeCell ref="H46:I46"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
@@ -2483,11 +2480,14 @@
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
     <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
